--- a/timetabling_GA/results/HK2_CT01/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_HocKy_PhongHoc.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,8 +608,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -619,15 +619,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -635,7 +635,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -646,7 +646,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -655,90 +655,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -748,176 +751,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -936,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,8 +912,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1039,15 +923,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -1055,7 +939,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -1066,7 +950,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -1075,90 +959,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1168,176 +1055,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1356,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,8 +1216,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1459,15 +1227,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -1475,7 +1243,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -1486,7 +1254,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -1495,90 +1263,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1588,176 +1359,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1776,7 +1428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1868,8 +1520,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1879,15 +1531,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -1895,7 +1547,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -1906,7 +1558,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -1915,90 +1567,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2008,176 +1663,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2196,7 +1732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2288,8 +1824,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2299,15 +1835,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -2315,7 +1851,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -2326,7 +1862,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -2335,90 +1871,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2428,176 +1967,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2616,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2708,8 +2128,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2719,15 +2139,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -2735,7 +2155,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -2746,7 +2166,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -2755,90 +2175,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2848,176 +2271,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3036,7 +2340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3128,8 +2432,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3139,15 +2443,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -3155,7 +2459,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -3166,7 +2470,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -3175,90 +2479,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3268,176 +2575,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3456,7 +2644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3548,8 +2736,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3559,15 +2747,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -3575,7 +2763,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -3586,7 +2774,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -3595,90 +2783,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3688,176 +2879,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3876,7 +2948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,8 +3040,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3979,15 +3051,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -3995,7 +3067,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -4006,7 +3078,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -4015,90 +3087,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -4108,176 +3183,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4296,7 +3252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4388,8 +3344,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4399,15 +3355,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -4415,7 +3371,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -4426,7 +3382,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -4435,90 +3391,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -4528,176 +3487,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4716,7 +3556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4808,8 +3648,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4819,15 +3659,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -4835,7 +3675,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -4846,7 +3686,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -4855,90 +3695,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -4948,176 +3791,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5136,7 +3860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5228,8 +3952,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -5239,15 +3963,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -5255,7 +3979,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -5266,7 +3990,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -5275,90 +3999,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -5368,176 +4095,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5556,7 +4164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5648,8 +4256,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -5659,15 +4267,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -5675,7 +4283,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -5686,7 +4294,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -5695,90 +4303,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -5788,176 +4399,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5976,7 +4468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6068,8 +4560,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -6079,15 +4571,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -6095,7 +4587,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -6106,7 +4598,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -6115,90 +4607,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -6208,176 +4703,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6396,7 +4772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6488,8 +4864,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -6499,15 +4875,15 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
@@ -6515,7 +4891,7 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -6526,7 +4902,7 @@
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: MH01
+Môn: Cấu trúc dữ liệu
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
@@ -6535,90 +4911,93 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH01
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
@@ -6628,176 +5007,57 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R105</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R101</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB04</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH01
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH02
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK2_CT01/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_HocKy_PhongHoc.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,57 +608,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -667,56 +674,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -728,80 +747,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -820,7 +787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,57 +879,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -971,56 +945,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -1032,80 +1018,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1124,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,57 +1150,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -1275,56 +1216,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -1336,80 +1289,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1428,7 +1329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,57 +1421,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -1579,56 +1487,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -1640,80 +1560,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1732,7 +1600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1824,57 +1692,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -1883,56 +1758,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -1944,80 +1831,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2036,7 +1871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2128,57 +1963,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -2187,56 +2029,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -2248,80 +2102,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2340,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2432,57 +2234,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -2491,56 +2300,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -2552,80 +2373,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2644,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2736,57 +2505,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -2795,56 +2571,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -2856,80 +2644,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2948,7 +2684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3040,57 +2776,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -3099,56 +2842,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -3160,80 +2915,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3252,7 +2955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3344,57 +3047,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -3403,56 +3113,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -3464,80 +3186,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3556,7 +3226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3648,57 +3318,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -3707,56 +3384,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -3768,80 +3457,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3860,7 +3497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3952,57 +3589,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -4011,56 +3655,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -4072,80 +3728,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4164,7 +3768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4256,57 +3860,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -4315,56 +3926,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -4376,80 +3999,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4468,7 +4039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4560,57 +4131,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -4619,56 +4197,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -4680,80 +4270,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4772,7 +4310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4864,57 +4402,64 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R101</t>
@@ -4923,56 +4468,68 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
@@ -4984,80 +4541,28 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK2_CT01/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_HocKy_PhongHoc.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,8 +608,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -617,11 +617,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -629,144 +655,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -787,7 +904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,8 +996,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -888,11 +1005,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -900,144 +1043,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,8 +1384,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1159,11 +1393,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -1171,144 +1431,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1421,8 +1772,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1430,11 +1781,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -1442,144 +1819,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -1600,7 +2068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,8 +2160,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1701,11 +2169,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -1713,144 +2207,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -1871,7 +2456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1963,8 +2548,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1972,11 +2557,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -1984,144 +2595,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2234,8 +2936,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2243,11 +2945,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -2255,144 +2983,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -2413,7 +3232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,8 +3324,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2514,11 +3333,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -2526,144 +3371,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -2684,7 +3620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2776,8 +3712,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2785,11 +3721,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -2797,144 +3759,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -2955,7 +4008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3047,8 +4100,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3056,11 +4109,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -3068,144 +4147,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -3226,7 +4396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3318,8 +4488,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3327,11 +4497,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -3339,144 +4535,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -3497,7 +4784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3589,8 +4876,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3598,11 +4885,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -3610,144 +4923,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -3768,7 +5172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3860,8 +5264,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3869,11 +5273,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -3881,144 +5311,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -4039,7 +5560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4131,8 +5652,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4140,11 +5661,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -4152,144 +5699,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -4310,7 +5948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4402,8 +6040,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4411,11 +6049,37 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Cấu trúc dữ liệu
@@ -4423,144 +6087,235 @@
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>LAB01</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
 Môn: Thuật toán
 GV: Lê Văn C
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
     </row>

--- a/timetabling_GA/results/HK2_CT01/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_HocKy_PhongHoc.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,15 +617,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -635,24 +635,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -668,119 +661,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -788,7 +755,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -797,77 +764,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -876,7 +850,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -886,6 +867,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -904,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,15 +1033,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1023,24 +1051,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -1056,119 +1077,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -1176,7 +1171,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -1185,77 +1180,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -1264,7 +1266,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -1274,6 +1283,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1292,7 +1348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,15 +1449,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1411,24 +1467,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -1444,119 +1493,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -1564,7 +1587,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -1573,77 +1596,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -1652,7 +1682,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -1662,6 +1699,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1680,7 +1764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1781,15 +1865,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1799,24 +1883,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -1832,119 +1909,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -1952,7 +2003,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -1961,77 +2012,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -2040,7 +2098,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -2050,6 +2115,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2068,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,15 +2281,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2187,24 +2299,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -2220,119 +2325,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -2340,7 +2419,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -2349,77 +2428,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -2428,7 +2514,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -2438,6 +2531,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2456,7 +2596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2557,15 +2697,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2575,24 +2715,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -2608,119 +2741,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -2728,7 +2835,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -2737,77 +2844,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -2816,7 +2930,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -2826,6 +2947,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2844,7 +3012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2945,15 +3113,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2963,24 +3131,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -2996,119 +3157,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -3116,7 +3251,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -3125,77 +3260,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -3204,7 +3346,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -3214,6 +3363,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3232,7 +3428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,15 +3529,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -3351,24 +3547,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -3384,119 +3573,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -3504,7 +3667,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -3513,77 +3676,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -3592,7 +3762,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -3602,6 +3779,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3620,7 +3844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3721,15 +3945,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -3739,24 +3963,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -3772,119 +3989,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -3892,7 +4083,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -3901,77 +4092,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -3980,7 +4178,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -3990,6 +4195,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4008,7 +4260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,15 +4361,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -4127,24 +4379,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -4160,119 +4405,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -4280,7 +4499,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -4289,77 +4508,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -4368,7 +4594,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -4378,6 +4611,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4396,7 +4676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,15 +4777,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -4515,24 +4795,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -4548,119 +4821,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -4668,7 +4915,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -4677,77 +4924,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -4756,7 +5010,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -4766,6 +5027,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4784,7 +5092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4885,15 +5193,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -4903,24 +5211,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -4936,119 +5237,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -5056,7 +5331,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -5065,77 +5340,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -5144,7 +5426,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -5154,6 +5443,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5172,7 +5508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5273,15 +5609,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -5291,24 +5627,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -5324,119 +5653,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -5444,7 +5747,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -5453,77 +5756,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -5532,7 +5842,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -5542,6 +5859,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5560,7 +5924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5661,15 +6025,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -5679,24 +6043,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -5712,119 +6069,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -5832,7 +6163,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -5841,77 +6172,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -5920,7 +6258,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -5930,6 +6275,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5948,7 +6340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6049,15 +6441,15 @@
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -6067,24 +6459,17 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -6100,119 +6485,93 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Thuật toán
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -6220,7 +6579,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL01
 Môn: Thuật toán
 GV: Lê Văn C
 (Lý thuyết)</t>
@@ -6229,77 +6588,84 @@
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -6308,7 +6674,14 @@
       <c r="C17" s="7" t="inlineStr"/>
       <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="10" t="inlineStr">
         <is>
@@ -6318,6 +6691,53 @@
 (Lý thuyết)</t>
         </is>
       </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
